--- a/files/1_Abandono_cuatrimestres.xlsx
+++ b/files/1_Abandono_cuatrimestres.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD31575-C309-45C2-ABF0-533E5C14898C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74ABAFCC-6BDE-449F-AA93-32A4B1560C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>gato</t>
   </si>
@@ -39,13 +39,61 @@
     <t>1º Cuatrimestre</t>
   </si>
   <si>
+    <t>28.0</t>
+  </si>
+  <si>
     <t>2º Cuatrimestre</t>
   </si>
   <si>
+    <t>43.0</t>
+  </si>
+  <si>
     <t>3º Cuatrimestre</t>
   </si>
   <si>
+    <t>29.0</t>
+  </si>
+  <si>
     <t>perro</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>30.9</t>
+  </si>
+  <si>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>31.4</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>23.8</t>
+  </si>
+  <si>
+    <t>43.7</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>34.7</t>
+  </si>
+  <si>
+    <t>32.3</t>
   </si>
 </sst>
 </file>
@@ -418,81 +466,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2019</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2017</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.32</v>
+      <c r="C8">
+        <v>2017</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2017</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2017</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2017</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2017</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2018</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>2018</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>2018</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
